--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H2">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I2">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J2">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>99.8942350398013</v>
+        <v>216.1448186666667</v>
       </c>
       <c r="N2">
-        <v>99.8942350398013</v>
+        <v>648.434456</v>
       </c>
       <c r="O2">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603751</v>
       </c>
       <c r="P2">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603752</v>
       </c>
       <c r="Q2">
-        <v>1188.329481449871</v>
+        <v>4527.006536689732</v>
       </c>
       <c r="R2">
-        <v>1188.329481449871</v>
+        <v>40743.05883020758</v>
       </c>
       <c r="S2">
-        <v>0.5889297476984897</v>
+        <v>0.7203672545489928</v>
       </c>
       <c r="T2">
-        <v>0.5889297476984897</v>
+        <v>0.7203672545489926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H3">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I3">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J3">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.16090191666523</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="N3">
-        <v>3.16090191666523</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="O3">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="P3">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="Q3">
-        <v>37.60169877719269</v>
+        <v>66.63560799983955</v>
       </c>
       <c r="R3">
-        <v>37.60169877719269</v>
+        <v>599.7204719985559</v>
       </c>
       <c r="S3">
-        <v>0.0186352011959411</v>
+        <v>0.01060349915579043</v>
       </c>
       <c r="T3">
-        <v>0.0186352011959411</v>
+        <v>0.01060349915579043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H4">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I4">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J4">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.04489257944328</v>
+        <v>2.606510333333333</v>
       </c>
       <c r="N4">
-        <v>2.04489257944328</v>
+        <v>7.819531</v>
       </c>
       <c r="O4">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="P4">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="Q4">
-        <v>24.32578954713777</v>
+        <v>54.59158997998711</v>
       </c>
       <c r="R4">
-        <v>24.32578954713777</v>
+        <v>491.324309819884</v>
       </c>
       <c r="S4">
-        <v>0.01205573144838849</v>
+        <v>0.008686975262046747</v>
       </c>
       <c r="T4">
-        <v>0.01205573144838849</v>
+        <v>0.008686975262046747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.31320667034573</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H5">
-        <v>2.31320667034573</v>
+        <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J5">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.8942350398013</v>
+        <v>216.1448186666667</v>
       </c>
       <c r="N5">
-        <v>99.8942350398013</v>
+        <v>648.434456</v>
       </c>
       <c r="O5">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603751</v>
       </c>
       <c r="P5">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603752</v>
       </c>
       <c r="Q5">
-        <v>231.0760108231525</v>
+        <v>502.9894547468338</v>
       </c>
       <c r="R5">
-        <v>231.0760108231525</v>
+        <v>4526.905092721504</v>
       </c>
       <c r="S5">
-        <v>0.1145200374791791</v>
+        <v>0.0800390124570092</v>
       </c>
       <c r="T5">
-        <v>0.1145200374791791</v>
+        <v>0.08003901245700919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.31320667034573</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H6">
-        <v>2.31320667034573</v>
+        <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J6">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.16090191666523</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="N6">
-        <v>3.16090191666523</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="O6">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="P6">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="Q6">
-        <v>7.311819397938613</v>
+        <v>7.403790531981778</v>
       </c>
       <c r="R6">
-        <v>7.311819397938613</v>
+        <v>66.634114787836</v>
       </c>
       <c r="S6">
-        <v>0.003623698663093853</v>
+        <v>0.001178140171778833</v>
       </c>
       <c r="T6">
-        <v>0.003623698663093853</v>
+        <v>0.001178140171778833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.31320667034573</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H7">
-        <v>2.31320667034573</v>
+        <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J7">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.04489257944328</v>
+        <v>2.606510333333333</v>
       </c>
       <c r="N7">
-        <v>2.04489257944328</v>
+        <v>7.819531</v>
       </c>
       <c r="O7">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="P7">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="Q7">
-        <v>4.730259154908681</v>
+        <v>6.065596295311556</v>
       </c>
       <c r="R7">
-        <v>4.730259154908681</v>
+        <v>54.590366657804</v>
       </c>
       <c r="S7">
-        <v>0.002344291187028298</v>
+        <v>0.0009651978443245612</v>
       </c>
       <c r="T7">
-        <v>0.002344291187028298</v>
+        <v>0.0009651978443245612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.98956024348008</v>
+        <v>5.044818</v>
       </c>
       <c r="H8">
-        <v>4.98956024348008</v>
+        <v>15.134454</v>
       </c>
       <c r="I8">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="J8">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>99.8942350398013</v>
+        <v>216.1448186666667</v>
       </c>
       <c r="N8">
-        <v>99.8942350398013</v>
+        <v>648.434456</v>
       </c>
       <c r="O8">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603751</v>
       </c>
       <c r="P8">
-        <v>0.9504681918825738</v>
+        <v>0.9739197284603752</v>
       </c>
       <c r="Q8">
-        <v>498.4283037074473</v>
+        <v>1090.411271816336</v>
       </c>
       <c r="R8">
-        <v>498.4283037074473</v>
+        <v>9813.701446347024</v>
       </c>
       <c r="S8">
-        <v>0.247018406704905</v>
+        <v>0.1735134614543732</v>
       </c>
       <c r="T8">
-        <v>0.247018406704905</v>
+        <v>0.1735134614543732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.98956024348008</v>
+        <v>5.044818</v>
       </c>
       <c r="H9">
-        <v>4.98956024348008</v>
+        <v>15.134454</v>
       </c>
       <c r="I9">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="J9">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.16090191666523</v>
+        <v>3.181559666666666</v>
       </c>
       <c r="N9">
-        <v>3.16090191666523</v>
+        <v>9.544678999999999</v>
       </c>
       <c r="O9">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="P9">
-        <v>0.03007517629274534</v>
+        <v>0.01433568357434949</v>
       </c>
       <c r="Q9">
-        <v>15.77151053693282</v>
+        <v>16.050389474474</v>
       </c>
       <c r="R9">
-        <v>15.77151053693282</v>
+        <v>144.453505270266</v>
       </c>
       <c r="S9">
-        <v>0.007816276433710389</v>
+        <v>0.002554044246780226</v>
       </c>
       <c r="T9">
-        <v>0.007816276433710389</v>
+        <v>0.002554044246780226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.98956024348008</v>
+        <v>5.044818</v>
       </c>
       <c r="H10">
-        <v>4.98956024348008</v>
+        <v>15.134454</v>
       </c>
       <c r="I10">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="J10">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.04489257944328</v>
+        <v>2.606510333333333</v>
       </c>
       <c r="N10">
-        <v>2.04489257944328</v>
+        <v>7.819531</v>
       </c>
       <c r="O10">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="P10">
-        <v>0.01945663182468085</v>
+        <v>0.01174458796527538</v>
       </c>
       <c r="Q10">
-        <v>10.20311471657762</v>
+        <v>13.149370246786</v>
       </c>
       <c r="R10">
-        <v>10.20311471657762</v>
+        <v>118.344332221074</v>
       </c>
       <c r="S10">
-        <v>0.005056609189264052</v>
+        <v>0.002092414858904069</v>
       </c>
       <c r="T10">
-        <v>0.005056609189264052</v>
+        <v>0.002092414858904069</v>
       </c>
     </row>
   </sheetData>
